--- a/biology/Médecine/Louise_Lambert-Lagacé/Louise_Lambert-Lagacé.xlsx
+++ b/biology/Médecine/Louise_Lambert-Lagacé/Louise_Lambert-Lagacé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louise_Lambert-Lagac%C3%A9</t>
+          <t>Louise_Lambert-Lagacé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louise Lambert-Lagacé (1941 à Montréal - ) est une nutritionniste québécoise.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louise_Lambert-Lagac%C3%A9</t>
+          <t>Louise_Lambert-Lagacé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle obtient un baccalauréat en nutrition à l'Université de Montréal en 1961 et dirige par la suite une clinique privée de nutrition.
 Elle a rédigé plusieurs livres sur la nutrition des enfants. Elle a également collaboré à plusieurs publications, comme le Montréal-Matin, Châtelaine et Le Devoir.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louise_Lambert-Lagac%C3%A9</t>
+          <t>Louise_Lambert-Lagacé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Au menu des 65 ans et plus, Éditions de l'Homme, 2016
 Le nouveau défi alimentaire de la femme, Éditions de l'Homme, 2008
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Louise_Lambert-Lagac%C3%A9</t>
+          <t>Louise_Lambert-Lagacé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1999 - Membre de l'Ordre du Canada
 2017 - Prix du Best in the World dans la catégorie des seniors pour Au menu des 65 ans et plus, au Gourmand World Cookbook Awards 2017
